--- a/results/error_propagation.xlsx
+++ b/results/error_propagation.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="24816"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="17480" tabRatio="500" firstSheet="1" activeTab="8"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="17480" tabRatio="590"/>
   </bookViews>
   <sheets>
     <sheet name="straightline" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1199" uniqueCount="532">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1207" uniqueCount="536">
   <si>
     <t>benchmark</t>
   </si>
@@ -1641,6 +1641,18 @@
   </si>
   <si>
     <t xml:space="preserve"> - </t>
+  </si>
+  <si>
+    <t>carbonGas</t>
+  </si>
+  <si>
+    <t>predatorPrey</t>
+  </si>
+  <si>
+    <t>rigidBody1</t>
+  </si>
+  <si>
+    <t>verhulst</t>
   </si>
 </sst>
 </file>
@@ -1783,7 +1795,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="341">
+  <cellStyleXfs count="383">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -2125,8 +2137,50 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="52">
+  <cellXfs count="53">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -2191,8 +2245,9 @@
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="170" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="11" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="341">
+  <cellStyles count="383">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -2363,6 +2418,27 @@
     <cellStyle name="Followed Hyperlink" xfId="336" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="338" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="340" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="342" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="344" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="346" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="348" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="350" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="352" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="354" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="356" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="358" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="360" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="362" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="364" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="366" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="368" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="370" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="372" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="374" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="376" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="378" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="380" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="382" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -2533,6 +2609,27 @@
     <cellStyle name="Hyperlink" xfId="335" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="337" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="339" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="341" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="343" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="345" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="347" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="349" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="351" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="353" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="355" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="357" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="359" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="361" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="363" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="365" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="367" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="369" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="371" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="373" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="375" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="377" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="379" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="381" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -2862,10 +2959,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J137"/>
+  <dimension ref="A1:J141"/>
   <sheetViews>
-    <sheetView topLeftCell="A3" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
-      <selection activeCell="B66" sqref="B66:B67"/>
+    <sheetView tabSelected="1" topLeftCell="A34" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
+      <selection activeCell="B55" sqref="B55:C55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -3501,21 +3598,93 @@
       <c r="C27" s="3"/>
       <c r="G27" s="2"/>
     </row>
-    <row r="28" spans="1:9">
-      <c r="C28" s="3"/>
+    <row r="28" spans="1:9" ht="18">
+      <c r="A28" s="36" t="s">
+        <v>532</v>
+      </c>
+      <c r="B28" s="2">
+        <v>-4.0179592800000002E-8</v>
+      </c>
+      <c r="C28" s="52">
+        <v>3.9753881299999997E-8</v>
+      </c>
+      <c r="D28" s="2">
+        <f>MAX(ABS(B28),ABS(C28))</f>
+        <v>4.0179592800000002E-8</v>
+      </c>
+      <c r="E28" s="2">
+        <v>3.3544514633775102E-8</v>
+      </c>
       <c r="G28" s="2"/>
-    </row>
-    <row r="29" spans="1:9">
-      <c r="C29" s="3"/>
+      <c r="H28" s="2">
+        <v>1.5976310142605501E-8</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" ht="18">
+      <c r="A29" s="36" t="s">
+        <v>533</v>
+      </c>
+      <c r="B29" s="2">
+        <v>-2.0886547000000001E-16</v>
+      </c>
+      <c r="C29" s="52">
+        <v>2.0296634200000001E-16</v>
+      </c>
+      <c r="D29" s="2">
+        <f t="shared" ref="D29:D31" si="0">MAX(ABS(B29),ABS(C29))</f>
+        <v>2.0886547000000001E-16</v>
+      </c>
+      <c r="E29" s="2">
+        <v>2.0792008887903301E-16</v>
+      </c>
       <c r="G29" s="2"/>
-    </row>
-    <row r="30" spans="1:9">
-      <c r="C30" s="3"/>
+      <c r="H29" s="2">
+        <v>1.9784712658629301E-16</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" ht="18">
+      <c r="A30" s="36" t="s">
+        <v>534</v>
+      </c>
+      <c r="B30" s="2">
+        <v>-3.21520588E-13</v>
+      </c>
+      <c r="C30" s="52">
+        <v>3.21520588E-13</v>
+      </c>
+      <c r="D30" s="2">
+        <f t="shared" si="0"/>
+        <v>3.21520588E-13</v>
+      </c>
+      <c r="E30" s="2">
+        <v>3.2152058793144498E-13</v>
+      </c>
       <c r="G30" s="2"/>
-    </row>
-    <row r="31" spans="1:9">
-      <c r="C31" s="3"/>
+      <c r="H30" s="2">
+        <v>3.2152058793144498E-13</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" ht="18">
+      <c r="A31" s="36" t="s">
+        <v>535</v>
+      </c>
+      <c r="B31" s="2">
+        <v>-4.2378415100000002E-16</v>
+      </c>
+      <c r="C31" s="52">
+        <v>3.9813808199999999E-16</v>
+      </c>
+      <c r="D31" s="2">
+        <f t="shared" si="0"/>
+        <v>4.2378415100000002E-16</v>
+      </c>
+      <c r="E31" s="2">
+        <v>4.7374242436954004E-16</v>
+      </c>
       <c r="G31" s="2"/>
+      <c r="H31" s="2">
+        <v>4.6654735390765103E-16</v>
+      </c>
     </row>
     <row r="32" spans="1:9">
       <c r="A32" s="3"/>
@@ -3551,10 +3720,11 @@
         <v>352</v>
       </c>
     </row>
-    <row r="36" spans="1:7">
+    <row r="36" spans="1:7" ht="18">
       <c r="A36" s="5"/>
-    </row>
-    <row r="37" spans="1:7">
+      <c r="G36" s="36"/>
+    </row>
+    <row r="37" spans="1:7" ht="18">
       <c r="A37" s="5" t="s">
         <v>3</v>
       </c>
@@ -3570,8 +3740,9 @@
       <c r="E37">
         <v>18.465</v>
       </c>
-    </row>
-    <row r="38" spans="1:7">
+      <c r="G37" s="36"/>
+    </row>
+    <row r="38" spans="1:7" ht="18">
       <c r="A38" s="5" t="s">
         <v>4</v>
       </c>
@@ -3587,8 +3758,9 @@
       <c r="E38">
         <v>27.870999999999999</v>
       </c>
-    </row>
-    <row r="39" spans="1:7">
+      <c r="G38" s="36"/>
+    </row>
+    <row r="39" spans="1:7" ht="18">
       <c r="A39" s="5" t="s">
         <v>5</v>
       </c>
@@ -3604,6 +3776,7 @@
       <c r="E39">
         <v>309.28800000000001</v>
       </c>
+      <c r="G39" s="36"/>
     </row>
     <row r="40" spans="1:7">
       <c r="A40" s="5" t="s">
@@ -3758,7 +3931,7 @@
         <v>5.8710000000000004</v>
       </c>
     </row>
-    <row r="49" spans="1:10">
+    <row r="49" spans="1:5">
       <c r="A49" s="5" t="s">
         <v>15</v>
       </c>
@@ -3775,7 +3948,7 @@
         <v>2.234</v>
       </c>
     </row>
-    <row r="50" spans="1:10">
+    <row r="50" spans="1:5">
       <c r="A50" s="5" t="s">
         <v>16</v>
       </c>
@@ -3792,7 +3965,7 @@
         <v>15.042</v>
       </c>
     </row>
-    <row r="51" spans="1:10">
+    <row r="51" spans="1:5">
       <c r="A51" s="5" t="s">
         <v>17</v>
       </c>
@@ -3809,560 +3982,604 @@
         <v>10.791</v>
       </c>
     </row>
-    <row r="53" spans="1:10" ht="18">
+    <row r="52" spans="1:5" ht="18">
+      <c r="A52" s="36" t="s">
+        <v>532</v>
+      </c>
+      <c r="B52">
+        <v>3.6890000000000001</v>
+      </c>
+      <c r="C52">
+        <v>25.553999999999998</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" ht="18">
       <c r="A53" s="36" t="s">
+        <v>533</v>
+      </c>
+      <c r="B53">
+        <v>0.75600000000000001</v>
+      </c>
+      <c r="C53">
+        <v>24.06</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" ht="18">
+      <c r="A54" s="36" t="s">
+        <v>534</v>
+      </c>
+      <c r="B54">
+        <v>0.1</v>
+      </c>
+      <c r="C54">
+        <v>0.16500000000000001</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" ht="18">
+      <c r="A55" s="36" t="s">
+        <v>535</v>
+      </c>
+      <c r="B55">
+        <v>4.1520000000000001</v>
+      </c>
+      <c r="C55">
+        <v>9.5090000000000003</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5" ht="18">
+      <c r="A57" s="36" t="s">
         <v>392</v>
       </c>
-      <c r="B53" s="43" t="s">
+      <c r="B57" s="43" t="s">
         <v>398</v>
       </c>
-      <c r="C53" s="44" t="s">
+      <c r="C57" s="44" t="s">
         <v>408</v>
       </c>
     </row>
-    <row r="54" spans="1:10" ht="18">
-      <c r="A54" s="36" t="s">
+    <row r="58" spans="1:5" ht="18">
+      <c r="A58" s="36" t="s">
         <v>399</v>
       </c>
-      <c r="B54" s="43" t="s">
+      <c r="B58" s="43" t="s">
         <v>400</v>
       </c>
-      <c r="C54" s="44">
+      <c r="C58" s="44">
         <v>400.72500000000002</v>
       </c>
     </row>
-    <row r="55" spans="1:10" ht="18">
-      <c r="A55" s="36" t="s">
+    <row r="59" spans="1:5" ht="18">
+      <c r="A59" s="36" t="s">
         <v>394</v>
       </c>
-      <c r="B55" s="43" t="s">
+      <c r="B59" s="43" t="s">
         <v>401</v>
       </c>
-      <c r="C55" s="44" t="s">
+      <c r="C59" s="44" t="s">
         <v>409</v>
       </c>
     </row>
-    <row r="56" spans="1:10" ht="18">
-      <c r="A56" s="36" t="s">
+    <row r="60" spans="1:5" ht="18">
+      <c r="A60" s="36" t="s">
         <v>402</v>
       </c>
-      <c r="B56" s="43" t="s">
+      <c r="B60" s="43" t="s">
         <v>403</v>
       </c>
-      <c r="C56" s="44" t="s">
+      <c r="C60" s="44" t="s">
         <v>410</v>
       </c>
     </row>
-    <row r="57" spans="1:10" ht="18">
-      <c r="A57" s="36" t="s">
+    <row r="61" spans="1:5" ht="18">
+      <c r="A61" s="36" t="s">
         <v>404</v>
       </c>
-      <c r="B57" s="43" t="s">
+      <c r="B61" s="43" t="s">
         <v>405</v>
       </c>
-      <c r="C57" s="44" t="s">
+      <c r="C61" s="44" t="s">
         <v>411</v>
       </c>
     </row>
-    <row r="58" spans="1:10" ht="18">
-      <c r="A58" s="36" t="s">
+    <row r="62" spans="1:5" ht="18">
+      <c r="A62" s="36" t="s">
         <v>406</v>
       </c>
-      <c r="B58" s="43" t="s">
+      <c r="B62" s="43" t="s">
         <v>407</v>
       </c>
-      <c r="C58" s="44" t="s">
+      <c r="C62" s="44" t="s">
         <v>412</v>
       </c>
     </row>
-    <row r="61" spans="1:10">
-      <c r="A61" s="5" t="s">
+    <row r="65" spans="1:10">
+      <c r="A65" s="5" t="s">
         <v>44</v>
-      </c>
-    </row>
-    <row r="62" spans="1:10">
-      <c r="A62" t="s">
-        <v>3</v>
-      </c>
-      <c r="B62" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="G62" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="I62" t="s">
-        <v>45</v>
-      </c>
-      <c r="J62">
-        <v>31.934999999999999</v>
-      </c>
-    </row>
-    <row r="63" spans="1:10">
-      <c r="A63" t="s">
-        <v>4</v>
-      </c>
-      <c r="B63" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="G63" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="I63" t="s">
-        <v>45</v>
-      </c>
-      <c r="J63">
-        <v>27.785</v>
-      </c>
-    </row>
-    <row r="64" spans="1:10">
-      <c r="A64" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="B64" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="G64" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="I64" t="s">
-        <v>45</v>
-      </c>
-      <c r="J64">
-        <v>732.74599999999998</v>
-      </c>
-    </row>
-    <row r="65" spans="1:10">
-      <c r="A65" t="s">
-        <v>5</v>
-      </c>
-      <c r="B65" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="G65" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="I65" t="s">
-        <v>45</v>
-      </c>
-      <c r="J65">
-        <v>679.60199999999998</v>
       </c>
     </row>
     <row r="66" spans="1:10">
       <c r="A66" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="B66" s="5" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="G66" s="5" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="I66" t="s">
         <v>45</v>
       </c>
       <c r="J66">
-        <v>7.39</v>
+        <v>31.934999999999999</v>
       </c>
     </row>
     <row r="67" spans="1:10">
+      <c r="A67" t="s">
+        <v>4</v>
+      </c>
       <c r="B67" s="5" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="G67" s="5" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="I67" t="s">
         <v>45</v>
       </c>
       <c r="J67">
-        <v>6.8570000000000002</v>
+        <v>27.785</v>
       </c>
     </row>
     <row r="68" spans="1:10">
       <c r="A68" s="5" t="s">
-        <v>7</v>
+        <v>23</v>
       </c>
       <c r="B68" s="5" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="G68" s="5" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="I68" t="s">
         <v>45</v>
       </c>
       <c r="J68">
-        <v>4.0750000000000002</v>
+        <v>732.74599999999998</v>
       </c>
     </row>
     <row r="69" spans="1:10">
-      <c r="A69" s="5" t="s">
-        <v>8</v>
+      <c r="A69" t="s">
+        <v>5</v>
       </c>
       <c r="B69" s="5" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="G69" s="5" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="I69" t="s">
         <v>45</v>
       </c>
       <c r="J69">
-        <v>0.60499999999999998</v>
+        <v>679.60199999999998</v>
       </c>
     </row>
     <row r="70" spans="1:10">
+      <c r="A70" t="s">
+        <v>6</v>
+      </c>
       <c r="B70" s="5" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="G70" s="5" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="I70" t="s">
         <v>45</v>
       </c>
       <c r="J70">
-        <v>1.7030000000000001</v>
+        <v>7.39</v>
       </c>
     </row>
     <row r="71" spans="1:10">
       <c r="B71" s="5" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="G71" s="5" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="I71" t="s">
         <v>45</v>
       </c>
       <c r="J71">
-        <v>17.189</v>
+        <v>6.8570000000000002</v>
       </c>
     </row>
     <row r="72" spans="1:10">
       <c r="A72" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B72" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="G72" s="5" t="s">
         <v>9</v>
-      </c>
-      <c r="B72" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="G72" s="5" t="s">
-        <v>13</v>
       </c>
       <c r="I72" t="s">
         <v>45</v>
       </c>
       <c r="J72">
-        <v>2.5739999999999998</v>
+        <v>4.0750000000000002</v>
       </c>
     </row>
     <row r="73" spans="1:10">
       <c r="A73" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="B73" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="G73" s="5" t="s">
         <v>10</v>
-      </c>
-      <c r="B73" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="G73" s="5" t="s">
-        <v>14</v>
       </c>
       <c r="I73" t="s">
         <v>45</v>
       </c>
       <c r="J73">
-        <v>6.2469999999999999</v>
+        <v>0.60499999999999998</v>
       </c>
     </row>
     <row r="74" spans="1:10">
-      <c r="A74" s="5" t="s">
+      <c r="B74" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="G74" s="5" t="s">
         <v>11</v>
-      </c>
-      <c r="B74" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="G74" s="5" t="s">
-        <v>15</v>
       </c>
       <c r="I74" t="s">
         <v>45</v>
       </c>
       <c r="J74">
-        <v>2.5659999999999998</v>
+        <v>1.7030000000000001</v>
       </c>
     </row>
     <row r="75" spans="1:10">
-      <c r="A75" s="5" t="s">
+      <c r="B75" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="G75" s="5" t="s">
         <v>12</v>
-      </c>
-      <c r="B75" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="G75" s="5" t="s">
-        <v>16</v>
       </c>
       <c r="I75" t="s">
         <v>45</v>
       </c>
       <c r="J75">
-        <v>15.073</v>
+        <v>17.189</v>
       </c>
     </row>
     <row r="76" spans="1:10">
       <c r="A76" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="B76" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="G76" s="5" t="s">
         <v>13</v>
-      </c>
-      <c r="B76" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="G76" s="5" t="s">
-        <v>17</v>
       </c>
       <c r="I76" t="s">
         <v>45</v>
       </c>
       <c r="J76">
-        <v>10.757</v>
+        <v>2.5739999999999998</v>
       </c>
     </row>
     <row r="77" spans="1:10">
+      <c r="A77" s="5" t="s">
+        <v>10</v>
+      </c>
       <c r="B77" s="5" t="s">
-        <v>38</v>
+        <v>34</v>
+      </c>
+      <c r="G77" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="I77" t="s">
+        <v>45</v>
+      </c>
+      <c r="J77">
+        <v>6.2469999999999999</v>
       </c>
     </row>
     <row r="78" spans="1:10">
       <c r="A78" s="5" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="B78" s="5" t="s">
-        <v>39</v>
+        <v>35</v>
+      </c>
+      <c r="G78" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="I78" t="s">
+        <v>45</v>
+      </c>
+      <c r="J78">
+        <v>2.5659999999999998</v>
       </c>
     </row>
     <row r="79" spans="1:10">
       <c r="A79" s="5" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="B79" s="5" t="s">
-        <v>40</v>
+        <v>36</v>
+      </c>
+      <c r="G79" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="I79" t="s">
+        <v>45</v>
+      </c>
+      <c r="J79">
+        <v>15.073</v>
       </c>
     </row>
     <row r="80" spans="1:10">
+      <c r="A80" s="5" t="s">
+        <v>13</v>
+      </c>
       <c r="B80" s="5" t="s">
-        <v>41</v>
+        <v>37</v>
+      </c>
+      <c r="G80" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="I80" t="s">
+        <v>45</v>
+      </c>
+      <c r="J80">
+        <v>10.757</v>
       </c>
     </row>
     <row r="81" spans="1:2">
-      <c r="A81" s="5" t="s">
-        <v>16</v>
-      </c>
       <c r="B81" s="5" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
     </row>
     <row r="82" spans="1:2">
       <c r="A82" s="5" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="B82" s="5" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="83" spans="1:2">
       <c r="A83" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="B83" s="5" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="84" spans="1:2">
+      <c r="B84" s="5" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="85" spans="1:2">
+      <c r="A85" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="B85" s="5" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="86" spans="1:2">
+      <c r="A86" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="B86" s="5" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="87" spans="1:2">
+      <c r="A87" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="B83" s="5" t="s">
+      <c r="B87" s="5" t="s">
         <v>43</v>
-      </c>
-    </row>
-    <row r="86" spans="1:2">
-      <c r="A86" t="s">
-        <v>375</v>
-      </c>
-    </row>
-    <row r="87" spans="1:2">
-      <c r="A87" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="88" spans="1:2">
-      <c r="A88" s="5" t="s">
-        <v>354</v>
       </c>
     </row>
     <row r="90" spans="1:2">
       <c r="A90" t="s">
-        <v>4</v>
+        <v>375</v>
       </c>
     </row>
     <row r="91" spans="1:2">
       <c r="A91" t="s">
-        <v>355</v>
+        <v>3</v>
       </c>
     </row>
     <row r="92" spans="1:2">
       <c r="A92" s="5" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
     </row>
     <row r="94" spans="1:2">
       <c r="A94" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="95" spans="1:2">
-      <c r="A95" s="5" t="s">
-        <v>357</v>
-      </c>
-    </row>
-    <row r="97" spans="1:1">
-      <c r="A97" t="s">
-        <v>6</v>
+      <c r="A95" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="96" spans="1:2">
+      <c r="A96" s="5" t="s">
+        <v>356</v>
       </c>
     </row>
     <row r="98" spans="1:1">
       <c r="A98" t="s">
-        <v>358</v>
+        <v>5</v>
       </c>
     </row>
     <row r="99" spans="1:1">
       <c r="A99" s="5" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
     </row>
     <row r="101" spans="1:1">
       <c r="A101" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="102" spans="1:1">
-      <c r="A102" s="5" t="s">
-        <v>360</v>
-      </c>
-    </row>
-    <row r="104" spans="1:1">
-      <c r="A104" t="s">
-        <v>8</v>
+      <c r="A102" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="103" spans="1:1">
+      <c r="A103" s="5" t="s">
+        <v>359</v>
       </c>
     </row>
     <row r="105" spans="1:1">
       <c r="A105" t="s">
-        <v>361</v>
+        <v>7</v>
       </c>
     </row>
     <row r="106" spans="1:1">
       <c r="A106" s="5" t="s">
-        <v>362</v>
-      </c>
-    </row>
-    <row r="107" spans="1:1">
-      <c r="A107" t="s">
-        <v>363</v>
+        <v>360</v>
+      </c>
+    </row>
+    <row r="108" spans="1:1">
+      <c r="A108" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="109" spans="1:1">
       <c r="A109" t="s">
-        <v>9</v>
+        <v>361</v>
       </c>
     </row>
     <row r="110" spans="1:1">
-      <c r="A110" t="s">
-        <v>364</v>
-      </c>
-    </row>
-    <row r="112" spans="1:1">
-      <c r="A112" t="s">
-        <v>10</v>
+      <c r="A110" s="5" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="111" spans="1:1">
+      <c r="A111" t="s">
+        <v>363</v>
       </c>
     </row>
     <row r="113" spans="1:1">
       <c r="A113" t="s">
-        <v>365</v>
-      </c>
-    </row>
-    <row r="115" spans="1:1">
-      <c r="A115" t="s">
-        <v>11</v>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="114" spans="1:1">
+      <c r="A114" t="s">
+        <v>364</v>
       </c>
     </row>
     <row r="116" spans="1:1">
       <c r="A116" t="s">
-        <v>366</v>
-      </c>
-    </row>
-    <row r="118" spans="1:1">
-      <c r="A118" t="s">
-        <v>12</v>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="117" spans="1:1">
+      <c r="A117" t="s">
+        <v>365</v>
       </c>
     </row>
     <row r="119" spans="1:1">
       <c r="A119" t="s">
-        <v>367</v>
-      </c>
-    </row>
-    <row r="121" spans="1:1">
-      <c r="A121" t="s">
-        <v>13</v>
+        <v>11</v>
+      </c>
+    </row>
+    <row r="120" spans="1:1">
+      <c r="A120" t="s">
+        <v>366</v>
       </c>
     </row>
     <row r="122" spans="1:1">
       <c r="A122" t="s">
-        <v>368</v>
+        <v>12</v>
       </c>
     </row>
     <row r="123" spans="1:1">
       <c r="A123" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
     </row>
     <row r="125" spans="1:1">
       <c r="A125" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="126" spans="1:1">
       <c r="A126" t="s">
-        <v>370</v>
-      </c>
-    </row>
-    <row r="128" spans="1:1">
-      <c r="A128" t="s">
-        <v>15</v>
+        <v>368</v>
+      </c>
+    </row>
+    <row r="127" spans="1:1">
+      <c r="A127" t="s">
+        <v>369</v>
       </c>
     </row>
     <row r="129" spans="1:1">
       <c r="A129" t="s">
-        <v>371</v>
+        <v>14</v>
       </c>
     </row>
     <row r="130" spans="1:1">
       <c r="A130" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
     </row>
     <row r="132" spans="1:1">
       <c r="A132" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="133" spans="1:1">
       <c r="A133" t="s">
-        <v>373</v>
-      </c>
-    </row>
-    <row r="135" spans="1:1">
-      <c r="A135" t="s">
-        <v>17</v>
+        <v>371</v>
+      </c>
+    </row>
+    <row r="134" spans="1:1">
+      <c r="A134" t="s">
+        <v>372</v>
       </c>
     </row>
     <row r="136" spans="1:1">
       <c r="A136" t="s">
-        <v>371</v>
+        <v>16</v>
       </c>
     </row>
     <row r="137" spans="1:1">
       <c r="A137" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="139" spans="1:1">
+      <c r="A139" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="140" spans="1:1">
+      <c r="A140" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="141" spans="1:1">
+      <c r="A141" t="s">
         <v>374</v>
       </c>
     </row>
@@ -9371,7 +9588,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A4:C13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C4" sqref="C4:C13"/>
     </sheetView>
   </sheetViews>
